--- a/biology/Microbiologie/Thermotoga_neapolitana/Thermotoga_neapolitana.xlsx
+++ b/biology/Microbiologie/Thermotoga_neapolitana/Thermotoga_neapolitana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thermotoga neapolitana est un organisme hyper-thermophile membre de l'ordre des Thermotogales[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermotoga neapolitana est un organisme hyper-thermophile membre de l'ordre des Thermotogales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 mars 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 mars 2020) :
 non-classé Thermotoga neapolitana 2812A
 non-classé Thermotoga neapolitana DSM 4359
 non-classé Thermotoga neapolitana LA10
@@ -545,9 +559,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thermotoga neapolitana a été découvert en 1985 dans le Lucrino, en Italie, dans un environnement de sources thermales par Shimshon Belkin, Carl. O Wirsen, et Holger W. Jannasch de l'Université de Berkeley[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermotoga neapolitana a été découvert en 1985 dans le Lucrino, en Italie, dans un environnement de sources thermales par Shimshon Belkin, Carl. O Wirsen, et Holger W. Jannasch de l'Université de Berkeley.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Habitat et conditions environnementales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thermotoga neapolitana est considéré comme étant un thermophile avec une plage de températures supportables de 50−95 °C. La température optimale a été trouvée à 77 °C, ce qui en fait presque un hyper-thermophile[4]. Il est également prouvé que l'on pouvait le trouver dans des milieux salins, en raison de sa capacité à se développer dans des environnements modérément halophiles[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermotoga neapolitana est considéré comme étant un thermophile avec une plage de températures supportables de 50−95 °C. La température optimale a été trouvée à 77 °C, ce qui en fait presque un hyper-thermophile. Il est également prouvé que l'on pouvait le trouver dans des milieux salins, en raison de sa capacité à se développer dans des environnements modérément halophiles.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Holger W. Jannasch, Robert Huber, Shimshon Belkin et Karl O. Stetter, « Thermotoga neapolitana sp. nov. of the extremely thermophilic, eubacterial genus Thermotoga », Archives of Microbiology, vol. 150, no 1,‎ 1988, p. 103-104 (ISSN 0302-8933, DOI 10.1007/BF00409725, lire en ligne, consulté le 28 mars 2020).</t>
         </is>
